--- a/data/trans_camb/P1409-Provincia-trans_camb.xlsx
+++ b/data/trans_camb/P1409-Provincia-trans_camb.xlsx
@@ -612,7 +612,7 @@
         <v>0.86266129086097</v>
       </c>
       <c r="D4" s="5" t="n">
-        <v>0.7807902975637819</v>
+        <v>0.7807902975637833</v>
       </c>
       <c r="E4" s="5" t="n">
         <v>-0.1832256111334828</v>
@@ -635,22 +635,22 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>-1.885591157240591</v>
+        <v>-1.889595896828312</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>-1.772827203234157</v>
+        <v>-1.898561914710059</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>-3.440361186500426</v>
+        <v>-3.60142890061137</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>-3.42981416651051</v>
+        <v>-3.403195004569378</v>
       </c>
       <c r="G5" s="5" t="n">
-        <v>-1.890898483175465</v>
+        <v>-1.70669083865732</v>
       </c>
       <c r="H5" s="5" t="n">
-        <v>-1.864064438609019</v>
+        <v>-1.735017772824009</v>
       </c>
     </row>
     <row r="6">
@@ -661,22 +661,22 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>3.884129443666541</v>
+        <v>3.909580943522849</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>4.407935375582193</v>
+        <v>4.02116104693882</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>3.13711992694897</v>
+        <v>2.784645307386142</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>2.422477536876906</v>
+        <v>2.411502172800891</v>
       </c>
       <c r="G6" s="5" t="n">
-        <v>2.434354449678006</v>
+        <v>2.505490564301516</v>
       </c>
       <c r="H6" s="5" t="n">
-        <v>2.303400925697302</v>
+        <v>2.438442500365009</v>
       </c>
     </row>
     <row r="7">
@@ -690,7 +690,7 @@
         <v>0.3243109366531242</v>
       </c>
       <c r="D7" s="6" t="n">
-        <v>0.2935321607856767</v>
+        <v>0.2935321607856772</v>
       </c>
       <c r="E7" s="6" t="n">
         <v>-0.04715750395595711</v>
@@ -713,22 +713,22 @@
         </is>
       </c>
       <c r="C8" s="6" t="n">
-        <v>-0.5533863698189505</v>
+        <v>-0.5203164141312456</v>
       </c>
       <c r="D8" s="6" t="n">
-        <v>-0.5163639498166549</v>
+        <v>-0.5681244218303599</v>
       </c>
       <c r="E8" s="6" t="n">
-        <v>-0.6352987666745959</v>
+        <v>-0.6561353994845243</v>
       </c>
       <c r="F8" s="6" t="n">
-        <v>-0.5641032957694863</v>
+        <v>-0.5592318968327396</v>
       </c>
       <c r="G8" s="6" t="n">
-        <v>-0.4339281223205949</v>
+        <v>-0.4047497648482676</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>-0.4254299674803437</v>
+        <v>-0.413175102417626</v>
       </c>
     </row>
     <row r="9">
@@ -739,22 +739,22 @@
         </is>
       </c>
       <c r="C9" s="6" t="n">
-        <v>2.719591839310491</v>
+        <v>2.88921047515255</v>
       </c>
       <c r="D9" s="6" t="n">
-        <v>3.448582422619198</v>
+        <v>3.081904047831074</v>
       </c>
       <c r="E9" s="6" t="n">
-        <v>1.544381999938499</v>
+        <v>1.370712488265136</v>
       </c>
       <c r="F9" s="6" t="n">
-        <v>1.044328953981423</v>
+        <v>1.188723789075959</v>
       </c>
       <c r="G9" s="6" t="n">
-        <v>1.14907339882745</v>
+        <v>1.219534358540835</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>1.006027277282172</v>
+        <v>1.124681663918766</v>
       </c>
     </row>
     <row r="10">
@@ -784,7 +784,7 @@
         <v>0.08182762516887737</v>
       </c>
       <c r="H10" s="5" t="n">
-        <v>2.225049078389553</v>
+        <v>2.225049078389554</v>
       </c>
     </row>
     <row r="11">
@@ -795,22 +795,22 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>-1.37886738042885</v>
+        <v>-1.321770247163818</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>1.126262491536402</v>
+        <v>1.136279624654755</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>-2.110934409453587</v>
+        <v>-2.364238059210827</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>-1.45938235170837</v>
+        <v>-1.179325406554514</v>
       </c>
       <c r="G11" s="5" t="n">
-        <v>-1.404046045313539</v>
+        <v>-1.239592914716139</v>
       </c>
       <c r="H11" s="5" t="n">
-        <v>0.441018768245608</v>
+        <v>0.6403591326421338</v>
       </c>
     </row>
     <row r="12">
@@ -821,22 +821,22 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>1.383226941168245</v>
+        <v>1.362002845027025</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>6.809529600198785</v>
+        <v>6.825552735495948</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>2.316459466277826</v>
+        <v>2.19847704454436</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>3.227371173497717</v>
+        <v>3.223843575921022</v>
       </c>
       <c r="G12" s="5" t="n">
-        <v>1.490592532814357</v>
+        <v>1.34500932860949</v>
       </c>
       <c r="H12" s="5" t="n">
-        <v>3.869508493463321</v>
+        <v>4.099992206142387</v>
       </c>
     </row>
     <row r="13">
@@ -862,7 +862,7 @@
         <v>0.03538075959354821</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.9620702832799423</v>
+        <v>0.9620702832799425</v>
       </c>
     </row>
     <row r="14">
@@ -873,22 +873,22 @@
         </is>
       </c>
       <c r="C14" s="6" t="n">
-        <v>-0.7287480592971012</v>
+        <v>-0.7592753426245636</v>
       </c>
       <c r="D14" s="6" t="n">
-        <v>0.3950950257428517</v>
+        <v>0.3095024791032318</v>
       </c>
       <c r="E14" s="6" t="n">
-        <v>-0.4970815268738548</v>
+        <v>-0.5033627532468189</v>
       </c>
       <c r="F14" s="6" t="n">
-        <v>-0.3266535576891509</v>
+        <v>-0.2606596234874896</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>-0.4487365981056817</v>
+        <v>-0.4243853871307805</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.1206102604619845</v>
+        <v>0.1788518412753026</v>
       </c>
     </row>
     <row r="15">
@@ -899,22 +899,22 @@
         </is>
       </c>
       <c r="C15" s="6" t="n">
-        <v>2.647897311209443</v>
+        <v>2.777745684504549</v>
       </c>
       <c r="D15" s="6" t="n">
-        <v>10.62015338681379</v>
+        <v>10.99731673586466</v>
       </c>
       <c r="E15" s="6" t="n">
-        <v>1.008034852307737</v>
+        <v>1.037349458584759</v>
       </c>
       <c r="F15" s="6" t="n">
-        <v>1.407152743385498</v>
+        <v>1.457212109341099</v>
       </c>
       <c r="G15" s="6" t="n">
-        <v>0.9755050363676261</v>
+        <v>0.8151139025378485</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>2.379733123237556</v>
+        <v>2.477361214284928</v>
       </c>
     </row>
     <row r="16">
@@ -944,7 +944,7 @@
         <v>0.8068494205408154</v>
       </c>
       <c r="H16" s="5" t="n">
-        <v>2.74912225489798</v>
+        <v>2.749122254897979</v>
       </c>
     </row>
     <row r="17">
@@ -955,22 +955,22 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>-2.026795677765912</v>
+        <v>-2.198662360094795</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>-0.1149217618094452</v>
+        <v>0.2918298414020406</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>-1.012694197644238</v>
+        <v>-1.167192813906381</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>0.1764885762436686</v>
+        <v>0.3750212911151663</v>
       </c>
       <c r="G17" s="5" t="n">
-        <v>-1.006156113362632</v>
+        <v>-0.9464465270139059</v>
       </c>
       <c r="H17" s="5" t="n">
-        <v>0.9731864338039612</v>
+        <v>0.9188827177846973</v>
       </c>
     </row>
     <row r="18">
@@ -981,22 +981,22 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>2.415979830335287</v>
+        <v>2.214767868077322</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>5.037566187567533</v>
+        <v>5.336717506787355</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>4.439241437815856</v>
+        <v>4.419646357231081</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>5.171689746197274</v>
+        <v>5.210459900153727</v>
       </c>
       <c r="G18" s="5" t="n">
-        <v>2.524554036105079</v>
+        <v>2.687953415262871</v>
       </c>
       <c r="H18" s="5" t="n">
-        <v>4.489709588150516</v>
+        <v>4.583307443720427</v>
       </c>
     </row>
     <row r="19">
@@ -1022,7 +1022,7 @@
         <v>0.4111515023076166</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>1.400888091821378</v>
+        <v>1.400888091821377</v>
       </c>
     </row>
     <row r="20">
@@ -1033,22 +1033,22 @@
         </is>
       </c>
       <c r="C20" s="6" t="n">
-        <v>-0.7640472798178131</v>
+        <v>-0.7984977149766794</v>
       </c>
       <c r="D20" s="6" t="n">
-        <v>-0.1618359088384056</v>
+        <v>-0.05511329935679261</v>
       </c>
       <c r="E20" s="6" t="n">
-        <v>-0.448816402315849</v>
+        <v>-0.4453550698224186</v>
       </c>
       <c r="F20" s="6" t="n">
-        <v>-0.08817514590609801</v>
+        <v>-0.03518480341652399</v>
       </c>
       <c r="G20" s="6" t="n">
-        <v>-0.4045950777676888</v>
+        <v>-0.3540065819952323</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.2927792423346603</v>
+        <v>0.2460384465925006</v>
       </c>
     </row>
     <row r="21">
@@ -1059,22 +1059,22 @@
         </is>
       </c>
       <c r="C21" s="6" t="n">
-        <v>2.845526018868138</v>
+        <v>3.117258041369238</v>
       </c>
       <c r="D21" s="6" t="n">
-        <v>5.518689164416844</v>
+        <v>7.29526554811866</v>
       </c>
       <c r="E21" s="6" t="n">
-        <v>4.544049681626624</v>
+        <v>4.181192871375067</v>
       </c>
       <c r="F21" s="6" t="n">
-        <v>5.256629610808591</v>
+        <v>5.284023460139255</v>
       </c>
       <c r="G21" s="6" t="n">
-        <v>2.009704303033919</v>
+        <v>2.38993082614994</v>
       </c>
       <c r="H21" s="6" t="n">
-        <v>3.817521432624281</v>
+        <v>3.622693948120669</v>
       </c>
     </row>
     <row r="22">
@@ -1092,7 +1092,7 @@
         <v>2.270151407943423</v>
       </c>
       <c r="D22" s="5" t="n">
-        <v>1.499428049736876</v>
+        <v>1.499428049736877</v>
       </c>
       <c r="E22" s="5" t="n">
         <v>2.929108949668958</v>
@@ -1104,7 +1104,7 @@
         <v>2.607794847586242</v>
       </c>
       <c r="H22" s="5" t="n">
-        <v>0.5249449772360699</v>
+        <v>0.5249449772360696</v>
       </c>
     </row>
     <row r="23">
@@ -1115,22 +1115,22 @@
         </is>
       </c>
       <c r="C23" s="5" t="n">
-        <v>-0.195106144334915</v>
+        <v>-0.3620930835927011</v>
       </c>
       <c r="D23" s="5" t="n">
-        <v>-0.6285916010046368</v>
+        <v>-1.081272762736</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>0.4399252753691921</v>
+        <v>0.4009952514961124</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>-2.30790312191033</v>
+        <v>-2.230536287860016</v>
       </c>
       <c r="G23" s="5" t="n">
-        <v>0.8552072844504526</v>
+        <v>0.8743720553088348</v>
       </c>
       <c r="H23" s="5" t="n">
-        <v>-0.8999617649141468</v>
+        <v>-0.8880720800545108</v>
       </c>
     </row>
     <row r="24">
@@ -1141,22 +1141,22 @@
         </is>
       </c>
       <c r="C24" s="5" t="n">
-        <v>4.840569506706347</v>
+        <v>4.990599389003086</v>
       </c>
       <c r="D24" s="5" t="n">
-        <v>5.251507828902586</v>
+        <v>6.018232342096288</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>5.939094592804519</v>
+        <v>6.337165100177441</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>1.3336948582374</v>
+        <v>1.234365155197581</v>
       </c>
       <c r="G24" s="5" t="n">
-        <v>4.631913280747986</v>
+        <v>4.586805111505559</v>
       </c>
       <c r="H24" s="5" t="n">
-        <v>2.696519418240094</v>
+        <v>2.507470989803953</v>
       </c>
     </row>
     <row r="25">
@@ -1170,7 +1170,7 @@
         <v>1.198754458922586</v>
       </c>
       <c r="D25" s="6" t="n">
-        <v>0.7917736474167686</v>
+        <v>0.7917736474167689</v>
       </c>
       <c r="E25" s="6" t="n">
         <v>1.284227902289619</v>
@@ -1182,7 +1182,7 @@
         <v>1.247096661264807</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.2510385849810153</v>
+        <v>0.2510385849810152</v>
       </c>
     </row>
     <row r="26">
@@ -1193,22 +1193,22 @@
         </is>
       </c>
       <c r="C26" s="6" t="n">
-        <v>-0.139849776104508</v>
+        <v>-0.2060308007707819</v>
       </c>
       <c r="D26" s="6" t="n">
-        <v>-0.419217283391564</v>
+        <v>-0.4915063879218667</v>
       </c>
       <c r="E26" s="6" t="n">
-        <v>0.04946653305286807</v>
+        <v>0.0007165815975284486</v>
       </c>
       <c r="F26" s="6" t="n">
-        <v>-0.6550401902016797</v>
+        <v>-0.6521511205947821</v>
       </c>
       <c r="G26" s="6" t="n">
-        <v>0.2721735005555271</v>
+        <v>0.2860513196927142</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>-0.3700369669353381</v>
+        <v>-0.355736913551648</v>
       </c>
     </row>
     <row r="27">
@@ -1219,22 +1219,22 @@
         </is>
       </c>
       <c r="C27" s="6" t="n">
-        <v>5.493992601637292</v>
+        <v>5.67804928268567</v>
       </c>
       <c r="D27" s="6" t="n">
-        <v>5.231593171938065</v>
+        <v>5.890410586993682</v>
       </c>
       <c r="E27" s="6" t="n">
-        <v>4.112779918046568</v>
+        <v>4.747336695190279</v>
       </c>
       <c r="F27" s="6" t="n">
-        <v>1.334531984365477</v>
+        <v>1.059864508647142</v>
       </c>
       <c r="G27" s="6" t="n">
-        <v>3.513715460893284</v>
+        <v>3.41455211908793</v>
       </c>
       <c r="H27" s="6" t="n">
-        <v>1.815455688530868</v>
+        <v>1.76014951620907</v>
       </c>
     </row>
     <row r="28">
@@ -1264,7 +1264,7 @@
         <v>0.3570961853234238</v>
       </c>
       <c r="H28" s="5" t="n">
-        <v>0.6745698177263612</v>
+        <v>0.6745698177263618</v>
       </c>
     </row>
     <row r="29">
@@ -1275,22 +1275,22 @@
         </is>
       </c>
       <c r="C29" s="5" t="n">
-        <v>-2.571860196831127</v>
+        <v>-2.543953951391213</v>
       </c>
       <c r="D29" s="5" t="n">
-        <v>-3.743327550830156</v>
+        <v>-3.545433578430482</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>-2.815143524066215</v>
+        <v>-2.759331021933422</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>-1.487847321244847</v>
+        <v>-1.508328472559117</v>
       </c>
       <c r="G29" s="5" t="n">
-        <v>-1.914397773823588</v>
+        <v>-1.953472167437556</v>
       </c>
       <c r="H29" s="5" t="n">
-        <v>-1.541381614472328</v>
+        <v>-1.71045854624863</v>
       </c>
     </row>
     <row r="30">
@@ -1301,22 +1301,22 @@
         </is>
       </c>
       <c r="C30" s="5" t="n">
-        <v>3.322759696815696</v>
+        <v>3.305654512401691</v>
       </c>
       <c r="D30" s="5" t="n">
-        <v>2.259967116974103</v>
+        <v>2.295923406290219</v>
       </c>
       <c r="E30" s="5" t="n">
-        <v>3.423497448281951</v>
+        <v>3.606238441309227</v>
       </c>
       <c r="F30" s="5" t="n">
-        <v>4.93709333577739</v>
+        <v>5.281562079633968</v>
       </c>
       <c r="G30" s="5" t="n">
-        <v>2.391826247222502</v>
+        <v>2.457107466750439</v>
       </c>
       <c r="H30" s="5" t="n">
-        <v>2.910389910512983</v>
+        <v>2.738217516181416</v>
       </c>
     </row>
     <row r="31">
@@ -1342,7 +1342,7 @@
         <v>0.1439948962281243</v>
       </c>
       <c r="H31" s="6" t="n">
-        <v>0.2720124574115984</v>
+        <v>0.2720124574115987</v>
       </c>
     </row>
     <row r="32">
@@ -1353,20 +1353,22 @@
         </is>
       </c>
       <c r="C32" s="6" t="n">
-        <v>-0.7538971046794685</v>
-      </c>
-      <c r="D32" s="6" t="inlineStr"/>
+        <v>-0.738663579882698</v>
+      </c>
+      <c r="D32" s="6" t="n">
+        <v>-1</v>
+      </c>
       <c r="E32" s="6" t="n">
-        <v>-0.7032772556911874</v>
+        <v>-0.6970643302633119</v>
       </c>
       <c r="F32" s="6" t="n">
-        <v>-0.4083603991689163</v>
+        <v>-0.433287107154457</v>
       </c>
       <c r="G32" s="6" t="n">
-        <v>-0.5547437811738563</v>
+        <v>-0.542811157237303</v>
       </c>
       <c r="H32" s="6" t="n">
-        <v>-0.4608768692972056</v>
+        <v>-0.4749179264884864</v>
       </c>
     </row>
     <row r="33">
@@ -1377,20 +1379,22 @@
         </is>
       </c>
       <c r="C33" s="6" t="n">
-        <v>3.829368442947932</v>
-      </c>
-      <c r="D33" s="6" t="inlineStr"/>
+        <v>3.658706594232028</v>
+      </c>
+      <c r="D33" s="6" t="n">
+        <v>3.642285750963108</v>
+      </c>
       <c r="E33" s="6" t="n">
-        <v>3.016412977068364</v>
+        <v>3.651857734730139</v>
       </c>
       <c r="F33" s="6" t="n">
-        <v>4.70796005458755</v>
+        <v>5.191698773970885</v>
       </c>
       <c r="G33" s="6" t="n">
-        <v>1.863330910460239</v>
+        <v>1.824459415879535</v>
       </c>
       <c r="H33" s="6" t="n">
-        <v>2.097194847168827</v>
+        <v>1.888721198122729</v>
       </c>
     </row>
     <row r="34">
@@ -1420,7 +1424,7 @@
         <v>-0.748093365594801</v>
       </c>
       <c r="H34" s="5" t="n">
-        <v>1.552118978837089</v>
+        <v>1.552118978837088</v>
       </c>
     </row>
     <row r="35">
@@ -1431,22 +1435,22 @@
         </is>
       </c>
       <c r="C35" s="5" t="n">
-        <v>-3.833376861179285</v>
+        <v>-3.782773021842774</v>
       </c>
       <c r="D35" s="5" t="n">
-        <v>-1.647604581045127</v>
+        <v>-1.992049289751607</v>
       </c>
       <c r="E35" s="5" t="n">
-        <v>-3.001643476813874</v>
+        <v>-3.335968511307087</v>
       </c>
       <c r="F35" s="5" t="n">
-        <v>-0.783527742201288</v>
+        <v>-0.6672218107300543</v>
       </c>
       <c r="G35" s="5" t="n">
-        <v>-2.490459072360424</v>
+        <v>-2.653066365498065</v>
       </c>
       <c r="H35" s="5" t="n">
-        <v>-0.5670060170604743</v>
+        <v>-0.679775306773413</v>
       </c>
     </row>
     <row r="36">
@@ -1457,22 +1461,22 @@
         </is>
       </c>
       <c r="C36" s="5" t="n">
-        <v>0.7854179955282644</v>
+        <v>0.8921876399823881</v>
       </c>
       <c r="D36" s="5" t="n">
-        <v>3.369911040177388</v>
+        <v>3.396425551265728</v>
       </c>
       <c r="E36" s="5" t="n">
-        <v>2.582477063870525</v>
+        <v>2.337271000486968</v>
       </c>
       <c r="F36" s="5" t="n">
-        <v>5.272943845582494</v>
+        <v>5.403257462209191</v>
       </c>
       <c r="G36" s="5" t="n">
-        <v>1.253079690112465</v>
+        <v>1.070895099472411</v>
       </c>
       <c r="H36" s="5" t="n">
-        <v>3.273178168513532</v>
+        <v>3.440099042121773</v>
       </c>
     </row>
     <row r="37">
@@ -1498,7 +1502,7 @@
         <v>-0.2576961380314148</v>
       </c>
       <c r="H37" s="6" t="n">
-        <v>0.5346592885415649</v>
+        <v>0.5346592885415645</v>
       </c>
     </row>
     <row r="38">
@@ -1509,22 +1513,22 @@
         </is>
       </c>
       <c r="C38" s="6" t="n">
-        <v>-0.9075874135232956</v>
+        <v>-0.9041849620121039</v>
       </c>
       <c r="D38" s="6" t="n">
-        <v>-0.4951292037827542</v>
+        <v>-0.4887246377824058</v>
       </c>
       <c r="E38" s="6" t="n">
-        <v>-0.686278408753952</v>
+        <v>-0.7366884693929818</v>
       </c>
       <c r="F38" s="6" t="n">
-        <v>-0.1813557417342646</v>
+        <v>-0.1929220417469112</v>
       </c>
       <c r="G38" s="6" t="n">
-        <v>-0.6536563382482785</v>
+        <v>-0.6679487676517805</v>
       </c>
       <c r="H38" s="6" t="n">
-        <v>-0.1593386919760681</v>
+        <v>-0.2012415809452633</v>
       </c>
     </row>
     <row r="39">
@@ -1535,22 +1539,22 @@
         </is>
       </c>
       <c r="C39" s="6" t="n">
-        <v>1.087740762839617</v>
+        <v>1.339444291823396</v>
       </c>
       <c r="D39" s="6" t="n">
-        <v>2.368978358799192</v>
+        <v>2.762213899752438</v>
       </c>
       <c r="E39" s="6" t="n">
-        <v>1.410075824241306</v>
+        <v>1.393054947494991</v>
       </c>
       <c r="F39" s="6" t="n">
-        <v>3.130492411896017</v>
+        <v>3.08600541615032</v>
       </c>
       <c r="G39" s="6" t="n">
-        <v>0.7052888972631017</v>
+        <v>0.5593581449914906</v>
       </c>
       <c r="H39" s="6" t="n">
-        <v>1.793506595667525</v>
+        <v>1.792596252340944</v>
       </c>
     </row>
     <row r="40">
@@ -1574,13 +1578,13 @@
         <v>2.282067880410148</v>
       </c>
       <c r="F40" s="5" t="n">
-        <v>5.664944957153069</v>
+        <v>5.664944957153067</v>
       </c>
       <c r="G40" s="5" t="n">
         <v>1.964660173686529</v>
       </c>
       <c r="H40" s="5" t="n">
-        <v>4.161764426389148</v>
+        <v>4.16176442638915</v>
       </c>
     </row>
     <row r="41">
@@ -1591,22 +1595,22 @@
         </is>
       </c>
       <c r="C41" s="5" t="n">
-        <v>0.03332664899867638</v>
+        <v>-0.1524402769586531</v>
       </c>
       <c r="D41" s="5" t="n">
-        <v>0.5085872142534561</v>
+        <v>0.5050388239396546</v>
       </c>
       <c r="E41" s="5" t="n">
-        <v>0.1709707243330887</v>
+        <v>0.4479248970350546</v>
       </c>
       <c r="F41" s="5" t="n">
-        <v>3.609200708540514</v>
+        <v>3.499281432978036</v>
       </c>
       <c r="G41" s="5" t="n">
-        <v>0.7161681217785018</v>
+        <v>0.6748580771872563</v>
       </c>
       <c r="H41" s="5" t="n">
-        <v>2.582904972114914</v>
+        <v>2.764822652981249</v>
       </c>
     </row>
     <row r="42">
@@ -1617,22 +1621,22 @@
         </is>
       </c>
       <c r="C42" s="5" t="n">
-        <v>3.405285567607041</v>
+        <v>3.376852098700606</v>
       </c>
       <c r="D42" s="5" t="n">
-        <v>4.917695999745698</v>
+        <v>4.964464128337165</v>
       </c>
       <c r="E42" s="5" t="n">
-        <v>4.345335688701427</v>
+        <v>4.311235963470448</v>
       </c>
       <c r="F42" s="5" t="n">
-        <v>7.873732166204888</v>
+        <v>7.788257585510372</v>
       </c>
       <c r="G42" s="5" t="n">
-        <v>3.350017904020653</v>
+        <v>3.421461668638027</v>
       </c>
       <c r="H42" s="5" t="n">
-        <v>5.754208909848435</v>
+        <v>5.953136876883295</v>
       </c>
     </row>
     <row r="43">
@@ -1646,19 +1650,19 @@
         <v>1.099121670018545</v>
       </c>
       <c r="D43" s="6" t="n">
-        <v>1.711125222412461</v>
+        <v>1.71112522241246</v>
       </c>
       <c r="E43" s="6" t="n">
         <v>1.057428784559683</v>
       </c>
       <c r="F43" s="6" t="n">
-        <v>2.624933251136802</v>
+        <v>2.624933251136801</v>
       </c>
       <c r="G43" s="6" t="n">
         <v>1.074987020139242</v>
       </c>
       <c r="H43" s="6" t="n">
-        <v>2.277158563687255</v>
+        <v>2.277158563687256</v>
       </c>
     </row>
     <row r="44">
@@ -1669,22 +1673,22 @@
         </is>
       </c>
       <c r="C44" s="6" t="n">
-        <v>-0.07511979342640208</v>
+        <v>-0.1625232847666327</v>
       </c>
       <c r="D44" s="6" t="n">
-        <v>0.06028529384005341</v>
+        <v>0.0996183144491251</v>
       </c>
       <c r="E44" s="6" t="n">
-        <v>0.008104261784304725</v>
+        <v>0.03365644425411022</v>
       </c>
       <c r="F44" s="6" t="n">
-        <v>0.883011201058495</v>
+        <v>1.031496766273325</v>
       </c>
       <c r="G44" s="6" t="n">
-        <v>0.2482740457399342</v>
+        <v>0.2511387392249253</v>
       </c>
       <c r="H44" s="6" t="n">
-        <v>0.9859205027430067</v>
+        <v>1.038792345950498</v>
       </c>
     </row>
     <row r="45">
@@ -1695,22 +1699,22 @@
         </is>
       </c>
       <c r="C45" s="6" t="n">
-        <v>4.380878617186176</v>
+        <v>4.2151687338422</v>
       </c>
       <c r="D45" s="6" t="n">
-        <v>4.807942535131703</v>
+        <v>5.791130674205364</v>
       </c>
       <c r="E45" s="6" t="n">
-        <v>3.136831985368382</v>
+        <v>3.110415073850252</v>
       </c>
       <c r="F45" s="6" t="n">
-        <v>5.64562563358657</v>
+        <v>5.862341067119027</v>
       </c>
       <c r="G45" s="6" t="n">
-        <v>2.538584294471552</v>
+        <v>2.841483683985861</v>
       </c>
       <c r="H45" s="6" t="n">
-        <v>4.333901776056456</v>
+        <v>4.562150947730482</v>
       </c>
     </row>
     <row r="46">
@@ -1751,22 +1755,22 @@
         </is>
       </c>
       <c r="C47" s="5" t="n">
-        <v>-1.205613051679256</v>
+        <v>-1.269183550199908</v>
       </c>
       <c r="D47" s="5" t="n">
-        <v>0.1083917411866482</v>
+        <v>0.07119947897824282</v>
       </c>
       <c r="E47" s="5" t="n">
-        <v>-0.4276449342159908</v>
+        <v>-0.2361738158993492</v>
       </c>
       <c r="F47" s="5" t="n">
-        <v>-0.471006949647214</v>
+        <v>-0.7705460446311054</v>
       </c>
       <c r="G47" s="5" t="n">
-        <v>-0.2110860623087006</v>
+        <v>-0.2764726656237698</v>
       </c>
       <c r="H47" s="5" t="n">
-        <v>0.2933853723333301</v>
+        <v>0.2478813588481313</v>
       </c>
     </row>
     <row r="48">
@@ -1777,22 +1781,22 @@
         </is>
       </c>
       <c r="C48" s="5" t="n">
-        <v>1.733952233242913</v>
+        <v>1.796915252800426</v>
       </c>
       <c r="D48" s="5" t="n">
-        <v>3.868899482144165</v>
+        <v>4.180994639347013</v>
       </c>
       <c r="E48" s="5" t="n">
-        <v>3.330314503998376</v>
+        <v>3.500717869450472</v>
       </c>
       <c r="F48" s="5" t="n">
-        <v>2.808729661447841</v>
+        <v>2.539784025028144</v>
       </c>
       <c r="G48" s="5" t="n">
-        <v>2.207147244956464</v>
+        <v>2.115142824157692</v>
       </c>
       <c r="H48" s="5" t="n">
-        <v>2.818589248143856</v>
+        <v>2.715745426112087</v>
       </c>
     </row>
     <row r="49">
@@ -1812,7 +1816,7 @@
         <v>0.5741754162454892</v>
       </c>
       <c r="F49" s="6" t="n">
-        <v>0.4027147393562013</v>
+        <v>0.4027147393562016</v>
       </c>
       <c r="G49" s="6" t="n">
         <v>0.3862039552450456</v>
@@ -1829,22 +1833,22 @@
         </is>
       </c>
       <c r="C50" s="6" t="n">
-        <v>-0.4404963125354402</v>
+        <v>-0.4561503038861167</v>
       </c>
       <c r="D50" s="6" t="n">
-        <v>0.01263661582401717</v>
+        <v>-0.03288401435962455</v>
       </c>
       <c r="E50" s="6" t="n">
-        <v>-0.1620271961820133</v>
+        <v>-0.09499406596957639</v>
       </c>
       <c r="F50" s="6" t="n">
-        <v>-0.1765792492343777</v>
+        <v>-0.221425146773203</v>
       </c>
       <c r="G50" s="6" t="n">
-        <v>-0.09372574345535296</v>
+        <v>-0.1113458449929545</v>
       </c>
       <c r="H50" s="6" t="n">
-        <v>0.08486085959355628</v>
+        <v>0.05929045544746374</v>
       </c>
     </row>
     <row r="51">
@@ -1855,22 +1859,22 @@
         </is>
       </c>
       <c r="C51" s="6" t="n">
-        <v>1.28729586192563</v>
+        <v>1.224954619820845</v>
       </c>
       <c r="D51" s="6" t="n">
-        <v>2.791851097121457</v>
+        <v>2.727948586764312</v>
       </c>
       <c r="E51" s="6" t="n">
-        <v>1.719554210659529</v>
+        <v>1.805126511981856</v>
       </c>
       <c r="F51" s="6" t="n">
-        <v>1.506751776744586</v>
+        <v>1.457249910683419</v>
       </c>
       <c r="G51" s="6" t="n">
-        <v>1.182213029777053</v>
+        <v>1.104618621991017</v>
       </c>
       <c r="H51" s="6" t="n">
-        <v>1.480014948188729</v>
+        <v>1.473442974030807</v>
       </c>
     </row>
     <row r="52">
@@ -1894,13 +1898,13 @@
         <v>1.276087455554735</v>
       </c>
       <c r="F52" s="5" t="n">
-        <v>2.058388347101482</v>
+        <v>2.058388347101481</v>
       </c>
       <c r="G52" s="5" t="n">
         <v>0.961378877063826</v>
       </c>
       <c r="H52" s="5" t="n">
-        <v>2.005494979648195</v>
+        <v>2.005494979648194</v>
       </c>
     </row>
     <row r="53">
@@ -1911,22 +1915,22 @@
         </is>
       </c>
       <c r="C53" s="5" t="n">
-        <v>-0.0527714135984515</v>
+        <v>-0.142725648215787</v>
       </c>
       <c r="D53" s="5" t="n">
-        <v>1.15029187612847</v>
+        <v>1.114086102193635</v>
       </c>
       <c r="E53" s="5" t="n">
-        <v>0.4625977759267364</v>
+        <v>0.4244674952490001</v>
       </c>
       <c r="F53" s="5" t="n">
-        <v>1.232681601704489</v>
+        <v>1.311899607478368</v>
       </c>
       <c r="G53" s="5" t="n">
-        <v>0.3969968902502057</v>
+        <v>0.3351750026793694</v>
       </c>
       <c r="H53" s="5" t="n">
-        <v>1.456776509874851</v>
+        <v>1.450214206026017</v>
       </c>
     </row>
     <row r="54">
@@ -1937,22 +1941,22 @@
         </is>
       </c>
       <c r="C54" s="5" t="n">
-        <v>1.3465303945916</v>
+        <v>1.366489925646113</v>
       </c>
       <c r="D54" s="5" t="n">
-        <v>2.955870035982246</v>
+        <v>2.962342590005051</v>
       </c>
       <c r="E54" s="5" t="n">
-        <v>2.182132700412329</v>
+        <v>2.133845778179306</v>
       </c>
       <c r="F54" s="5" t="n">
-        <v>2.860165758783804</v>
+        <v>2.952563702760793</v>
       </c>
       <c r="G54" s="5" t="n">
-        <v>1.530689216388808</v>
+        <v>1.506972141350701</v>
       </c>
       <c r="H54" s="5" t="n">
-        <v>2.587323133294967</v>
+        <v>2.641163486989855</v>
       </c>
     </row>
     <row r="55">
@@ -1972,13 +1976,13 @@
         <v>0.471520980143824</v>
       </c>
       <c r="F55" s="6" t="n">
-        <v>0.7605852457189097</v>
+        <v>0.7605852457189094</v>
       </c>
       <c r="G55" s="6" t="n">
         <v>0.4152864467195467</v>
       </c>
       <c r="H55" s="6" t="n">
-        <v>0.8663128594583165</v>
+        <v>0.8663128594583163</v>
       </c>
     </row>
     <row r="56">
@@ -1989,22 +1993,22 @@
         </is>
       </c>
       <c r="C56" s="6" t="n">
-        <v>-0.03424294933752089</v>
+        <v>-0.06925663211295829</v>
       </c>
       <c r="D56" s="6" t="n">
-        <v>0.4696545075711526</v>
+        <v>0.5094971694929044</v>
       </c>
       <c r="E56" s="6" t="n">
-        <v>0.1449123230358001</v>
+        <v>0.1391605260460572</v>
       </c>
       <c r="F56" s="6" t="n">
-        <v>0.3834608885398516</v>
+        <v>0.4129584516739122</v>
       </c>
       <c r="G56" s="6" t="n">
-        <v>0.15310680617588</v>
+        <v>0.124662814626913</v>
       </c>
       <c r="H56" s="6" t="n">
-        <v>0.5558499313627266</v>
+        <v>0.5387212423387358</v>
       </c>
     </row>
     <row r="57">
@@ -2015,22 +2019,22 @@
         </is>
       </c>
       <c r="C57" s="6" t="n">
-        <v>0.8750047328653336</v>
+        <v>0.8742365507983836</v>
       </c>
       <c r="D57" s="6" t="n">
-        <v>1.806259750657374</v>
+        <v>1.889967654493032</v>
       </c>
       <c r="E57" s="6" t="n">
-        <v>0.9052480584711018</v>
+        <v>0.9544538236739308</v>
       </c>
       <c r="F57" s="6" t="n">
-        <v>1.256627633035833</v>
+        <v>1.31326933750668</v>
       </c>
       <c r="G57" s="6" t="n">
-        <v>0.7448730206065145</v>
+        <v>0.715882008288547</v>
       </c>
       <c r="H57" s="6" t="n">
-        <v>1.236779600832941</v>
+        <v>1.282800672370299</v>
       </c>
     </row>
     <row r="58">
